--- a/IE_models/Drumderg_Footbridge_2.xlsx
+++ b/IE_models/Drumderg_Footbridge_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julian/Documents/WorkDocuments/Python/agnetwork/IE_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A4F9ED-F002-C140-BAEE-B21F355122E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D33AFB-60E5-AD45-B753-FBDA1C1F9F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{41EF06E5-D224-AC48-85A7-03741ACF90EC}"/>
   </bookViews>
@@ -1240,7 +1240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1768,11 +1768,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EA39B3-DC91-914B-9042-786A21D22A90}">
   <dimension ref="A1:O175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="11" style="6"/>
@@ -1788,7 +1788,7 @@
     <col min="12" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="51">
       <c r="A2" s="16" t="s">
         <v>34</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
     </row>
-    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="51">
       <c r="A3" s="16" t="s">
         <v>38</v>
       </c>
@@ -1894,7 +1894,7 @@
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
     </row>
-    <row r="4" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="51">
       <c r="A4" s="16" t="s">
         <v>39</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
     </row>
-    <row r="5" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="51">
       <c r="A5" s="16" t="s">
         <v>46</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="N5" s="34"/>
       <c r="O5" s="34"/>
     </row>
-    <row r="6" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="51">
       <c r="A6" s="16" t="s">
         <v>47</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
     </row>
-    <row r="7" spans="1:15" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="16" customFormat="1" ht="51">
       <c r="A7" s="16" t="s">
         <v>41</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="16" customFormat="1" ht="51">
       <c r="A8" s="16" t="s">
         <v>42</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2076,7 +2076,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="51">
       <c r="A10" s="16" t="s">
         <v>43</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="51">
       <c r="A11" s="16" t="s">
         <v>44</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="51">
       <c r="A12" s="16" t="s">
         <v>45</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="51">
       <c r="A13" s="16" t="s">
         <v>40</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="51">
       <c r="A14" s="16" t="s">
         <v>48</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="51">
       <c r="A15" s="16" t="s">
         <v>54</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="51">
       <c r="A16" s="16" t="s">
         <v>55</v>
       </c>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2310,7 +2310,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="51">
       <c r="A18" s="16" t="s">
         <v>77</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="51">
       <c r="A19" s="16" t="s">
         <v>79</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="17" customFormat="1" ht="51">
       <c r="A20" s="17" t="s">
         <v>135</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="17" customFormat="1" ht="51">
       <c r="A21" s="17" t="s">
         <v>137</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="51">
       <c r="A22" s="16" t="s">
         <v>138</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="17" customFormat="1" ht="51">
       <c r="A23" s="17" t="s">
         <v>136</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="17" customFormat="1" ht="51">
       <c r="A24" s="17" t="s">
         <v>139</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="51">
       <c r="A25" s="16" t="s">
         <v>140</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="51">
       <c r="A26" s="16" t="s">
         <v>87</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="51">
       <c r="A27" s="17" t="s">
         <v>88</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="51">
       <c r="A28" s="16" t="s">
         <v>91</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="51">
       <c r="A29" s="16" t="s">
         <v>92</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="51">
       <c r="A30" s="17" t="s">
         <v>93</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="15" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="15" customFormat="1" ht="51">
       <c r="A31" s="17" t="s">
         <v>94</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="17" customFormat="1" ht="51">
       <c r="A32" s="17" t="s">
         <v>146</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="51">
       <c r="A33" s="17" t="s">
         <v>147</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="51">
       <c r="A34" s="16" t="s">
         <v>90</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="51">
       <c r="A35" s="16" t="s">
         <v>95</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="51">
       <c r="A36" s="16" t="s">
         <v>96</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="51">
       <c r="A37" s="16" t="s">
         <v>97</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="51">
       <c r="A38" s="16" t="s">
         <v>98</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="51">
       <c r="A39" s="16" t="s">
         <v>99</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="17" customFormat="1" ht="51">
       <c r="A40" s="17" t="s">
         <v>148</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="51">
       <c r="A41" s="17" t="s">
         <v>149</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="51">
       <c r="A42" s="16" t="s">
         <v>100</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="51">
       <c r="A43" s="16" t="s">
         <v>101</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="51">
       <c r="A44" s="16" t="s">
         <v>103</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="51">
       <c r="A45" s="17" t="s">
         <v>102</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -3118,7 +3118,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="51">
       <c r="A47" s="17" t="s">
         <v>117</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="51">
       <c r="A48" s="17" t="s">
         <v>118</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="51">
       <c r="A49" s="17" t="s">
         <v>152</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="51">
       <c r="A50" s="17" t="s">
         <v>153</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="51">
       <c r="A51" s="17" t="s">
         <v>154</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="51">
       <c r="A52" s="17" t="s">
         <v>155</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="51">
       <c r="A53" s="17" t="s">
         <v>156</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="51">
       <c r="A54" s="17" t="s">
         <v>157</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="51">
       <c r="A55" s="17" t="s">
         <v>119</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="51">
       <c r="A56" s="17" t="s">
         <v>120</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="51">
       <c r="A57" s="17" t="s">
         <v>121</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="51">
       <c r="A58" s="17" t="s">
         <v>122</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="51">
       <c r="A59" s="17" t="s">
         <v>123</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="51">
       <c r="A60" s="17" t="s">
         <v>124</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="51">
       <c r="A61" s="17" t="s">
         <v>158</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="51">
       <c r="A62" s="17" t="s">
         <v>159</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="51">
       <c r="A63" s="17" t="s">
         <v>125</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="51">
       <c r="A64" s="17" t="s">
         <v>126</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="51">
       <c r="A65" s="17" t="s">
         <v>127</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="51">
       <c r="A66" s="17" t="s">
         <v>128</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="51">
       <c r="A67" s="17" t="s">
         <v>129</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="51">
       <c r="A68" s="17" t="s">
         <v>130</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="51">
       <c r="A69" s="17" t="s">
         <v>160</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="51">
       <c r="A70" s="17" t="s">
         <v>161</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="51">
       <c r="A71" s="17" t="s">
         <v>131</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="51">
       <c r="A72" s="17" t="s">
         <v>132</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="51">
       <c r="A73" s="17" t="s">
         <v>133</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="51">
       <c r="A74" s="17" t="s">
         <v>134</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="51">
       <c r="A76" s="6" t="s">
         <v>162</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="51">
       <c r="A77" s="17" t="s">
         <v>163</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="51">
       <c r="A78" s="17" t="s">
         <v>164</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="51">
       <c r="A79" s="17" t="s">
         <v>165</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="51">
       <c r="A80" s="17" t="s">
         <v>166</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="51">
       <c r="A81" s="17" t="s">
         <v>167</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="51">
       <c r="A82" s="17" t="s">
         <v>168</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="51">
       <c r="A83" s="17" t="s">
         <v>169</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="51">
       <c r="A84" s="17" t="s">
         <v>170</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="51">
       <c r="A85" s="17" t="s">
         <v>171</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="51">
       <c r="A86" s="17" t="s">
         <v>172</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="51">
       <c r="A87" s="17" t="s">
         <v>173</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="51">
       <c r="A88" s="17" t="s">
         <v>174</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="51">
       <c r="A89" s="17" t="s">
         <v>175</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="51">
       <c r="A90" s="17" t="s">
         <v>176</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="51">
       <c r="A91" s="17" t="s">
         <v>177</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="51">
       <c r="A92" s="17" t="s">
         <v>178</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="51">
       <c r="A94" s="6" t="s">
         <v>179</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="51">
       <c r="A95" s="17" t="s">
         <v>180</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="51">
       <c r="A96" s="17" t="s">
         <v>181</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="51">
       <c r="A97" s="17" t="s">
         <v>182</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="51">
       <c r="A98" s="17" t="s">
         <v>183</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="51">
       <c r="A99" s="17" t="s">
         <v>184</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="51">
       <c r="A100" s="17" t="s">
         <v>185</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="51">
       <c r="A101" s="17" t="s">
         <v>186</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="51">
       <c r="A102" s="17" t="s">
         <v>187</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="51">
       <c r="A104" s="6" t="s">
         <v>188</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="51">
       <c r="A105" s="17" t="s">
         <v>189</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="51">
       <c r="A106" s="17" t="s">
         <v>195</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="51">
       <c r="A107" s="17" t="s">
         <v>194</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="51">
       <c r="A108" s="17" t="s">
         <v>190</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="51">
       <c r="A109" s="17" t="s">
         <v>191</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="51">
       <c r="A110" s="17" t="s">
         <v>196</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="51">
       <c r="A111" s="17" t="s">
         <v>197</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="51">
       <c r="A112" s="17" t="s">
         <v>192</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="51">
       <c r="A113" s="17" t="s">
         <v>193</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="51">
       <c r="A115" s="32" t="s">
         <v>361</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="171" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" s="17" customFormat="1">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -4937,7 +4937,7 @@
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
     </row>
-    <row r="175" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" s="17" customFormat="1">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -4969,13 +4969,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -4997,13 +4997,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -5018,11 +5018,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910BBFC3-9F34-C245-85CB-8F57706AA034}">
   <dimension ref="A1:Z108"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" style="2"/>
     <col min="2" max="2" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -5037,7 +5037,7 @@
     <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5520,7 +5520,7 @@
       <c r="Y10" s="27"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="17" thickBot="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="Y11" s="28"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>26.35</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>30.85</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="17" thickBot="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="U24" s="35"/>
       <c r="V24" s="35"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="U25" s="35"/>
       <c r="V25" s="35"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6162,7 +6162,7 @@
       <c r="U26" s="35"/>
       <c r="V26" s="35"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="U27" s="35"/>
       <c r="V27" s="35"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="U28" s="35"/>
       <c r="V28" s="35"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="24" customFormat="1">
       <c r="A43" s="22">
         <v>42</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="2">
         <v>70</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" s="2">
         <v>95</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" s="2">
         <v>99</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="2">
         <v>103</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="2">
         <v>107</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" s="2">
         <v>111</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" s="2">
         <v>115</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" s="2">
         <v>119</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" s="2">
         <v>123</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" s="2">
         <v>127</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" s="2">
         <v>131</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" s="2">
         <v>135</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" s="2">
         <v>139</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" s="2">
         <v>143</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" s="2">
         <v>147</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" s="2">
         <v>151</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108" s="2">
         <v>155</v>
       </c>
